--- a/TAP_POM_Framework/data/TC0018.xlsx
+++ b/TAP_POM_Framework/data/TC0018.xlsx
@@ -19,24 +19,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>uname</t>
+  </si>
+  <si>
+    <t>sys_admin@ltts.com</t>
   </si>
   <si>
     <t>pwd</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>sys_admin@ltts.com</t>
-  </si>
-  <si>
     <t>Rajravi@1</t>
   </si>
   <si>
-    <t>Fileviewer Release</t>
+    <t>row</t>
   </si>
 </sst>
 </file>
@@ -368,36 +365,31 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
+      <c r="C2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
